--- a/data/Книга1.xlsx
+++ b/data/Книга1.xlsx
@@ -36,6 +36,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -157,6 +160,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -585,7 +590,7 @@
         <f>1-B13</f>
         <v>0.99</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="10">
         <f>_xlfn.NORM.S.INV(C13)</f>
         <v>2.3263478740408408</v>
       </c>
@@ -602,7 +607,7 @@
         <f t="shared" ref="C14:C15" si="6">1-B14</f>
         <v>0.95</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="10">
         <f t="shared" ref="D14:D15" si="7">_xlfn.NORM.S.INV(C14)</f>
         <v>1.6448536269514715</v>
       </c>
@@ -619,7 +624,7 @@
         <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="11">
         <f t="shared" si="7"/>
         <v>1.2815515655446006</v>
       </c>
